--- a/0_File/1_Data/001_字串表.xlsx
+++ b/0_File/1_Data/001_字串表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="MesData" sheetId="1" r:id="rId1"/>
+    <sheet name="#欄位說明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>int</t>
   </si>
@@ -68,13 +69,128 @@
   </si>
   <si>
     <t>韓文</t>
+  </si>
+  <si>
+    <t>共通訊息</t>
+  </si>
+  <si>
+    <t>確定按鈕</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>取消按鈕</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>角色相關</t>
+  </si>
+  <si>
+    <t>對話訊息</t>
+  </si>
+  <si>
+    <t>預留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>MesData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號ID
+讀取字串用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企劃使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換到繁中語系顯示使用系統字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換到簡中語系顯示使用系統字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換到英文語系顯示使用系統字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換到日文語系顯示使用系統字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換到韓文語系顯示使用系統字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,8 +212,52 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +282,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,11 +330,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,9 +366,43 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Excel Built-in Normal" xfId="4"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -467,24 +704,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="16" style="1"/>
+    <col min="1" max="1" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="16" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -575,158 +815,1218 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>C5*100+D5</f>
+        <v>10001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="9">
+        <f>D4+1</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A13" si="0">C6*100+D6</f>
+        <v>10002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C12" si="1">C5</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="9">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>10003</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D13" si="2">D6+1</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>10004</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>10005</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>10006</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>10008</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>10009</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
+        <f>C12</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>101</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>C15*100+D15</f>
+        <v>10101</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
+        <f>C14</f>
+        <v>101</v>
+      </c>
+      <c r="D15" s="9">
+        <f>D14+1</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" ref="A16:A25" si="3">C16*100+D16</f>
+        <v>10102</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:C22" si="4">C15</f>
+        <v>101</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" ref="D16:D25" si="5">D15+1</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="3"/>
+        <v>10103</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="3"/>
+        <v>10104</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="3"/>
+        <v>10105</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="3"/>
+        <v>10106</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="3"/>
+        <v>10107</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="3"/>
+        <v>10108</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="3"/>
+        <v>10109</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8">
+        <f>C22</f>
+        <v>101</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>C24*100+D24</f>
+        <v>10110</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:C25" si="6">C23</f>
+        <v>101</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="3"/>
+        <v>10111</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f>C27*100+D27</f>
+        <v>10201</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <f>C26</f>
+        <v>102</v>
+      </c>
+      <c r="D27" s="9">
+        <f>D26+1</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" ref="A28:A30" si="7">C28*100+D28</f>
+        <v>10202</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
+        <f t="shared" ref="C28:C30" si="8">C27</f>
+        <v>102</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D30" si="9">D27+1</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="7"/>
+        <v>10203</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="7"/>
+        <v>10204</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>103</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" ref="A32:A42" si="10">C32*100+D32</f>
+        <v>10301</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
+        <f>C31</f>
+        <v>103</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D31+1</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="10"/>
+        <v>10302</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:C37" si="11">C32</f>
+        <v>103</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" ref="D33:D37" si="12">D32+1</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="10"/>
+        <v>10303</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="10"/>
+        <v>10304</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="10"/>
+        <v>10305</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="10"/>
+        <v>10306</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
+        <f t="shared" si="11"/>
+        <v>103</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="7">
+        <v>105</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="10"/>
+        <v>10501</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
+        <f t="shared" ref="C39:C42" si="13">C38</f>
+        <v>105</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" ref="D39:D42" si="14">D38+1</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="10"/>
+        <v>10502</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" si="10"/>
+        <v>10503</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="10"/>
+        <v>10504</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="7">
+        <v>110</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <f t="shared" ref="A52:A55" si="15">C52*100+D52</f>
+        <v>11001</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8">
+        <f t="shared" ref="C52:C55" si="16">C51</f>
+        <v>110</v>
+      </c>
+      <c r="D52" s="9">
+        <f>D51+1</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <f t="shared" si="15"/>
+        <v>11002</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" ref="D53:D55" si="17">D52+1</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <f t="shared" si="15"/>
+        <v>11003</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <f t="shared" si="15"/>
+        <v>11004</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1"/>
+    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/0_File/1_Data/001_字串表.xlsx
+++ b/0_File/1_Data/001_字串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MesDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="121">
   <si>
     <t>int</t>
   </si>
@@ -72,9 +72,6 @@
     <t>韓文</t>
   </si>
   <si>
-    <t>共通訊息</t>
-  </si>
-  <si>
     <t>確定按鈕</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>角色相關</t>
-  </si>
-  <si>
     <t>對話訊息</t>
   </si>
   <si>
@@ -104,10 +98,6 @@
   </si>
   <si>
     <t>技能名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,15 +189,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>內容暫定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>註4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丟進Unity的試算表中欄位不能為空的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離開遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生頻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕型武器攻擊倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型武器攻擊倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型武器攻擊倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆擊倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取生命倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴避率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆擊機率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷卻(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運氣值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色切換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開發設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器切換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色切換介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一個特務妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器櫃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能飾品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器切換介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替換按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能飾品介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到主選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back to Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主選單按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pasue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,26 +983,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -770,8 +1028,9 @@
       <c r="A2" s="8">
         <v>10001</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
+      <c r="B2" s="8" t="str">
+        <f>E2</f>
+        <v>確定</v>
       </c>
       <c r="C2" s="8">
         <v>100</v>
@@ -779,28 +1038,34 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
+      <c r="E2" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>確定</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預留</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Confirm</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Confirm</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A2,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Confirm</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>10002</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B39" si="0">E3</f>
+        <v>取消</v>
       </c>
       <c r="C3" s="8">
         <v>100</v>
@@ -808,28 +1073,34 @@
       <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
+      <c r="E3" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>取消</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預留</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Cancel</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Cancel</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A3,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Cancel</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>10003</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>55</v>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>替換</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -837,28 +1108,34 @@
       <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>55</v>
+      <c r="E4" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>替換</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>替換</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Change</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Change</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A4,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Change</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>10004</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>55</v>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>回到主選單</v>
       </c>
       <c r="C5" s="8">
         <v>100</v>
@@ -866,28 +1143,34 @@
       <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>55</v>
+      <c r="E5" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>回到主選單</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>回到主選單</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Back to Menu</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Back to Menu</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A5,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Back to Menu</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>10005</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>55</v>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>繼續</v>
       </c>
       <c r="C6" s="8">
         <v>100</v>
@@ -895,28 +1178,34 @@
       <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>55</v>
+      <c r="E6" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>繼續</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>繼續</v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Resume</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Resume</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A6,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Resume</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>10006</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>55</v>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7" s="8">
         <v>100</v>
@@ -924,28 +1213,34 @@
       <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>55</v>
+      <c r="E7" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A7,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10007</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C8" s="8">
         <v>100</v>
@@ -953,28 +1248,34 @@
       <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>55</v>
+      <c r="E8" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A8,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>10008</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>10101</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>開始遊戲</v>
       </c>
       <c r="C9" s="8">
         <v>100</v>
@@ -982,28 +1283,34 @@
       <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>55</v>
+      <c r="E9" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開始遊戲</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開始遊戲</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Start Game</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Start Game</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A9,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Start Game</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>10009</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>10102</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>排行榜</v>
       </c>
       <c r="C10" s="8">
         <v>100</v>
@@ -1011,28 +1318,34 @@
       <c r="D10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>55</v>
+      <c r="E10" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>排行榜</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>排行榜</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>LeaderBoard</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>LeaderBoard</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A10,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>LeaderBoard</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>10101</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>10103</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>設定</v>
       </c>
       <c r="C11" s="8">
         <v>101</v>
@@ -1040,28 +1353,34 @@
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>55</v>
+      <c r="E11" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>設定</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>設定</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Setting</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Setting</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A11,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Setting</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>10102</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>10104</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>離開遊戲</v>
       </c>
       <c r="C12" s="8">
         <v>101</v>
@@ -1069,28 +1388,34 @@
       <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>55</v>
+      <c r="E12" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>離開遊戲</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>離開遊戲</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Exit Game</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Exit Game</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A12,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Exit Game</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>10103</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>10105</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>角色切換</v>
       </c>
       <c r="C13" s="8">
         <v>101</v>
@@ -1098,28 +1423,34 @@
       <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>55</v>
+      <c r="E13" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>角色切換</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>角色切換</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>角色切換</v>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>角色切換</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A13,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>角色切換</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>10104</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>10106</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>武器切換</v>
       </c>
       <c r="C14" s="8">
         <v>101</v>
@@ -1127,28 +1458,34 @@
       <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>55</v>
+      <c r="E14" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>武器切換</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>武器切換</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>武器切換</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>武器切換</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A14,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>武器切換</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>10105</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>10107</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>開發設備</v>
       </c>
       <c r="C15" s="8">
         <v>101</v>
@@ -1156,28 +1493,34 @@
       <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>55</v>
+      <c r="E15" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開發設備</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開發設備</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開發設備</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開發設備</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A15,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>開發設備</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>10106</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>10108</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>出任務</v>
       </c>
       <c r="C16" s="8">
         <v>101</v>
@@ -1185,28 +1528,34 @@
       <c r="D16" s="9">
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>55</v>
+      <c r="E16" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>出任務</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>出任務</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>出任務</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>出任務</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A16,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>出任務</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>10107</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>10201</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>主音量</v>
       </c>
       <c r="C17" s="8">
         <v>101</v>
@@ -1214,28 +1563,34 @@
       <c r="D17" s="9">
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>55</v>
+      <c r="E17" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>主音量</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>主音量</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Main Volume</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Main Volume</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A17,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Main Volume</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>10108</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>10202</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>音樂</v>
       </c>
       <c r="C18" s="8">
         <v>101</v>
@@ -1243,28 +1598,34 @@
       <c r="D18" s="9">
         <v>8</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>55</v>
+      <c r="E18" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>音樂</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>音樂</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>BGM</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>BGM</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A18,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>BGM</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>10109</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>10203</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>音效</v>
       </c>
       <c r="C19" s="8">
         <v>101</v>
@@ -1272,28 +1633,34 @@
       <c r="D19" s="9">
         <v>9</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>55</v>
+      <c r="E19" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>音效</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>音效</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>SE</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>SE</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A19,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>SE</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>10110</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>10204</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C20" s="8">
         <v>101</v>
@@ -1301,28 +1668,34 @@
       <c r="D20" s="9">
         <v>10</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>55</v>
+      <c r="E20" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A20,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>10111</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>10205</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C21" s="8">
         <v>101</v>
@@ -1330,28 +1703,34 @@
       <c r="D21" s="9">
         <v>11</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>55</v>
+      <c r="E21" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A21,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>10201</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>10206</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C22" s="8">
         <v>102</v>
@@ -1359,28 +1738,34 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>55</v>
+      <c r="E22" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A22,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>10202</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>10207</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C23" s="8">
         <v>102</v>
@@ -1388,28 +1773,34 @@
       <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>55</v>
+      <c r="E23" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A23,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>10203</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>55</v>
+        <v>10208</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C24" s="8">
         <v>102</v>
@@ -1417,28 +1808,34 @@
       <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>55</v>
+      <c r="E24" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A24,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>10204</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>55</v>
+        <v>10209</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C25" s="8">
         <v>102</v>
@@ -1446,28 +1843,34 @@
       <c r="D25" s="9">
         <v>4</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
+      <c r="E25" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A25,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>10301</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>55</v>
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>暫停</v>
       </c>
       <c r="C26" s="8">
         <v>103</v>
@@ -1475,28 +1878,34 @@
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>55</v>
+      <c r="E26" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>暫停</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>暫停</v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Pasue</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Pasue</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A26,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>Pasue</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>10302</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>55</v>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C27" s="8">
         <v>103</v>
@@ -1504,28 +1913,34 @@
       <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>55</v>
+      <c r="E27" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A27,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>10303</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C28" s="8">
         <v>103</v>
@@ -1533,28 +1948,34 @@
       <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>55</v>
+      <c r="E28" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A28,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>10304</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>55</v>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C29" s="8">
         <v>103</v>
@@ -1562,28 +1983,34 @@
       <c r="D29" s="9">
         <v>4</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>55</v>
+      <c r="E29" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A29,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>10305</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>55</v>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C30" s="8">
         <v>103</v>
@@ -1591,28 +2018,34 @@
       <c r="D30" s="9">
         <v>5</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>55</v>
+      <c r="E30" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A30,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>10306</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>55</v>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C31" s="8">
         <v>103</v>
@@ -1620,28 +2053,34 @@
       <c r="D31" s="9">
         <v>6</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>55</v>
+      <c r="E31" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>_xlfn.IFNA(VLOOKUP($A31,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>10501</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>55</v>
+        <v>20101</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>血量</v>
       </c>
       <c r="C32" s="8">
         <v>105</v>
@@ -1649,28 +2088,34 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>55</v>
+      <c r="E32" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>血量</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>血量</v>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>血量</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>血量</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A32,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>血量</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>10502</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>55</v>
+        <v>20102</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>預設武器</v>
       </c>
       <c r="C33" s="8">
         <v>105</v>
@@ -1678,28 +2123,34 @@
       <c r="D33" s="9">
         <v>2</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>55</v>
+      <c r="E33" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預設武器</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預設武器</v>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預設武器</v>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預設武器</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A33,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>預設武器</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>10503</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>20103</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>再生</v>
       </c>
       <c r="C34" s="8">
         <v>105</v>
@@ -1707,28 +2158,34 @@
       <c r="D34" s="9">
         <v>3</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>55</v>
+      <c r="E34" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A34,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>10504</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>20104</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>再生頻率</v>
       </c>
       <c r="C35" s="8">
         <v>105</v>
@@ -1736,28 +2193,34 @@
       <c r="D35" s="9">
         <v>4</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>55</v>
+      <c r="E35" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生頻率</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生頻率</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生頻率</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生頻率</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A35,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>再生頻率</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>11001</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>20105</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>力量</v>
       </c>
       <c r="C36" s="8">
         <v>110</v>
@@ -1765,28 +2228,34 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>55</v>
+      <c r="E36" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>力量</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>力量</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>力量</v>
+      </c>
+      <c r="H36" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>力量</v>
+      </c>
+      <c r="I36" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A36,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>力量</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>11002</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>55</v>
+        <v>20106</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>輕型武器攻擊倍率</v>
       </c>
       <c r="C37" s="8">
         <v>110</v>
@@ -1794,28 +2263,34 @@
       <c r="D37" s="9">
         <v>2</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>55</v>
+      <c r="E37" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>輕型武器攻擊倍率</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>輕型武器攻擊倍率</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>輕型武器攻擊倍率</v>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>輕型武器攻擊倍率</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A37,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>輕型武器攻擊倍率</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>11003</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>55</v>
+        <v>20107</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>中型武器攻擊倍率</v>
       </c>
       <c r="C38" s="8">
         <v>110</v>
@@ -1823,28 +2298,34 @@
       <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>55</v>
+      <c r="E38" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>中型武器攻擊倍率</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>中型武器攻擊倍率</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>中型武器攻擊倍率</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>中型武器攻擊倍率</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A38,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>中型武器攻擊倍率</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>11004</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>20108</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>重型武器攻擊倍率</v>
       </c>
       <c r="C39" s="8">
         <v>110</v>
@@ -1852,20 +2333,225 @@
       <c r="D39" s="9">
         <v>4</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>55</v>
+      <c r="E39" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!E$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>重型武器攻擊倍率</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!F$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>重型武器攻擊倍率</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!G$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>重型武器攻擊倍率</v>
+      </c>
+      <c r="H39" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!H$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>重型武器攻擊倍率</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($A39,MesData!$A:$J,MATCH(MesDataInUnity!I$1,MesData!$A$2:$J$2,0),FALSE),0)</f>
+        <v>重型武器攻擊倍率</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>20109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>20110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>20111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>20112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>20114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>20115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>20116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>20202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>20203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>20204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>20205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>20206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>20302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>20303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>30103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>30105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>30106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>30202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>30203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>30204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>30205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>30304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>30305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>30306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>40101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>40102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>40103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>40104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>40105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>40106</v>
       </c>
     </row>
   </sheetData>
@@ -1880,27 +2566,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="16" style="6"/>
+    <col min="2" max="2" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="16" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1928,8 +2611,11 @@
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1957,8 +2643,11 @@
       <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1986,13 +2675,14 @@
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
@@ -2005,14 +2695,15 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>C5*100+D5</f>
         <v>10001</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8">
         <f>C4</f>
@@ -2023,31 +2714,32 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A11" si="0">C6*100+D6</f>
+        <v>10002</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f t="shared" ref="A6:A13" si="0">C6*100+D6</f>
-        <v>10002</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:C12" si="1">C5</f>
+        <f t="shared" ref="C6:C11" si="1">C5</f>
         <v>100</v>
       </c>
       <c r="D6" s="9">
@@ -2055,47 +2747,63 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ref="D7:D13" si="2">D6+1</f>
+        <f t="shared" ref="D7:D9" si="2">D6+1</f>
         <v>3</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>10004</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2104,18 +2812,31 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>10005</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2124,13 +2845,24 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>10006</v>
@@ -2141,7 +2873,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D10:D11" si="3">D9+1</f>
         <v>6</v>
       </c>
       <c r="E10" s="8"/>
@@ -2149,8 +2881,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10007</v>
@@ -2161,7 +2894,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E11" s="8"/>
@@ -2169,391 +2902,521 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>10008</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7">
+        <v>101</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>10009</v>
+        <f t="shared" ref="A13:A30" si="4">C13*100+D13</f>
+        <v>10101</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8">
-        <f>C12</f>
-        <v>100</v>
+        <f t="shared" ref="C13:C20" si="5">C12</f>
+        <v>101</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+        <f t="shared" ref="D13:D20" si="6">D12+1</f>
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="E13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="4"/>
+        <v>10102</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>C15*100+D15</f>
-        <v>10101</v>
+        <f t="shared" si="4"/>
+        <v>10103</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8">
-        <f>C14</f>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="D15" s="9">
-        <f>D14+1</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ref="A16:A25" si="3">C16*100+D16</f>
-        <v>10102</v>
+        <f t="shared" si="4"/>
+        <v>10104</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8">
-        <f t="shared" ref="C16:C22" si="4">C15</f>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ref="D16:D25" si="5">D15+1</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" si="3"/>
-        <v>10103</v>
+        <f t="shared" si="4"/>
+        <v>10105</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f t="shared" si="3"/>
-        <v>10104</v>
+        <v>10106</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f t="shared" si="3"/>
-        <v>10105</v>
+        <v>10107</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f t="shared" si="3"/>
-        <v>10106</v>
+        <v>10108</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="7">
+        <v>102</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f t="shared" si="3"/>
-        <v>10107</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f t="shared" si="3"/>
-        <v>10108</v>
+        <v>10201</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8">
+        <f t="shared" ref="C22:C30" si="7">C21</f>
+        <v>102</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22:D30" si="8">D21+1</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="3"/>
-        <v>10109</v>
+        <v>10202</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
-        <f>C22</f>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>102</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>C24*100+D24</f>
-        <v>10110</v>
+        <f t="shared" si="4"/>
+        <v>10203</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:C25" si="6">C23</f>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>102</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f t="shared" si="3"/>
-        <v>10111</v>
+        <f t="shared" si="4"/>
+        <v>10204</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>102</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="4"/>
+        <v>10205</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <f>C27*100+D27</f>
-        <v>10201</v>
+        <f t="shared" si="4"/>
+        <v>10206</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8">
-        <f>C26</f>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="D27" s="9">
-        <f>D26+1</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f t="shared" ref="A28:A30" si="7">C28*100+D28</f>
-        <v>10202</v>
+        <f t="shared" si="4"/>
+        <v>10207</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8">
-        <f t="shared" ref="C28:C30" si="8">C27</f>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ref="D28:D30" si="9">D27+1</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <f t="shared" si="7"/>
-        <v>10203</v>
+        <f t="shared" si="4"/>
+        <v>10208</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <f t="shared" si="7"/>
-        <v>10204</v>
+        <f t="shared" si="4"/>
+        <v>10209</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7">
         <v>103</v>
@@ -2566,39 +3429,51 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" ref="A32:A42" si="10">C32*100+D32</f>
+        <f t="shared" ref="A32:A37" si="9">C32*100+D32</f>
         <v>10301</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8">
-        <f>C31</f>
+        <f t="shared" ref="C32:C37" si="10">C31</f>
         <v>103</v>
       </c>
       <c r="D32" s="9">
-        <f>D31+1</f>
+        <f t="shared" ref="D32:D37" si="11">D31+1</f>
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10302</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8">
-        <f t="shared" ref="C33:C37" si="11">C32</f>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:D37" si="12">D32+1</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E33" s="8"/>
@@ -2606,19 +3481,20 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10303</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E34" s="8"/>
@@ -2626,19 +3502,20 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10304</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E35" s="8"/>
@@ -2646,19 +3523,20 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10305</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E36" s="8"/>
@@ -2666,19 +3544,20 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10306</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E37" s="8"/>
@@ -2686,16 +3565,17 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
@@ -2705,273 +3585,1628 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <f t="shared" si="10"/>
-        <v>10501</v>
+        <f>C39*100+D39</f>
+        <v>20101</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8">
-        <f t="shared" ref="C39:C42" si="13">C38</f>
-        <v>105</v>
+        <f>C38</f>
+        <v>201</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" ref="D39:D42" si="14">D38+1</f>
+        <f>D38+1</f>
         <v>1</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="10"/>
-        <v>10502</v>
+        <f t="shared" ref="A40:A61" si="12">C40*100+D40</f>
+        <v>20102</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8">
-        <f t="shared" si="13"/>
-        <v>105</v>
+        <f t="shared" ref="C40:C46" si="13">C39</f>
+        <v>201</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D40:D54" si="14">D39+1</f>
         <v>2</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <f t="shared" si="10"/>
-        <v>10503</v>
+        <f t="shared" si="12"/>
+        <v>20103</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <f t="shared" si="10"/>
-        <v>10504</v>
+        <f t="shared" si="12"/>
+        <v>20104</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="12"/>
+        <v>20105</v>
+      </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="C43" s="8">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="12"/>
+        <v>20106</v>
+      </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="C44" s="8">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="12"/>
+        <v>20107</v>
+      </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="C45" s="8">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f t="shared" si="12"/>
+        <v>20108</v>
+      </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="C46" s="8">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f t="shared" si="12"/>
+        <v>20109</v>
+      </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="C47" s="8">
+        <f>C46</f>
+        <v>201</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f>C48*100+D48</f>
+        <v>20110</v>
+      </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="C48" s="8">
+        <f t="shared" ref="C48:C54" si="15">C47</f>
+        <v>201</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="12"/>
+        <v>20111</v>
+      </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="C49" s="8">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="12"/>
+        <v>20112</v>
+      </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="7">
-        <v>110</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="8">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="12"/>
+        <v>20113</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <f t="shared" ref="A52:A55" si="15">C52*100+D52</f>
-        <v>11001</v>
+        <f t="shared" si="12"/>
+        <v>20114</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8">
-        <f t="shared" ref="C52:C55" si="16">C51</f>
-        <v>110</v>
+        <f t="shared" si="15"/>
+        <v>201</v>
       </c>
       <c r="D52" s="9">
-        <f>D51+1</f>
-        <v>1</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <f t="shared" si="15"/>
-        <v>11002</v>
+        <f t="shared" si="12"/>
+        <v>20115</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="15"/>
+        <v>201</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" ref="D53:D55" si="17">D52+1</f>
-        <v>2</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <f t="shared" si="15"/>
-        <v>11003</v>
+        <f t="shared" si="12"/>
+        <v>20116</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="7">
+        <v>202</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <f t="shared" si="12"/>
+        <v>20201</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8">
+        <f t="shared" ref="C56:C61" si="16">C55</f>
+        <v>202</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" ref="D56:D61" si="17">D55+1</f>
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <f t="shared" si="12"/>
+        <v>20202</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8">
         <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D54" s="9">
+        <v>202</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <f t="shared" si="12"/>
+        <v>20203</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="D58" s="9">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <f t="shared" si="15"/>
-        <v>11004</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <f t="shared" si="12"/>
+        <v>20204</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8">
         <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D55" s="9">
+        <v>202</v>
+      </c>
+      <c r="D59" s="9">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <f t="shared" si="12"/>
+        <v>20205</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <f t="shared" si="12"/>
+        <v>20206</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7">
+        <v>203</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>20301</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8">
+        <f t="shared" ref="C63:C65" si="18">C62</f>
+        <v>203</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" ref="D63:D65" si="19">D62+1</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>20302</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8">
+        <f t="shared" si="18"/>
+        <v>203</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>20303</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8">
+        <f t="shared" si="18"/>
+        <v>203</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="7">
+        <v>301</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <f>C67*100+D67</f>
+        <v>30101</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8">
+        <f>C66</f>
+        <v>301</v>
+      </c>
+      <c r="D67" s="9">
+        <f>D66+1</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <f t="shared" ref="A68:A72" si="20">C68*100+D68</f>
+        <v>30102</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8">
+        <f t="shared" ref="C68:C72" si="21">C67</f>
+        <v>301</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" ref="D68:D72" si="22">D67+1</f>
+        <v>2</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <f t="shared" si="20"/>
+        <v>30103</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <f t="shared" si="20"/>
+        <v>30104</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <f t="shared" si="20"/>
+        <v>30105</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <f t="shared" si="20"/>
+        <v>30106</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="7">
+        <v>302</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <f t="shared" ref="A74:A78" si="23">C74*100+D74</f>
+        <v>30201</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8">
+        <f t="shared" ref="C74:C78" si="24">C73</f>
+        <v>302</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" ref="D74:D78" si="25">D73+1</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <f t="shared" si="23"/>
+        <v>30202</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <f t="shared" si="23"/>
+        <v>30203</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <f t="shared" si="23"/>
+        <v>30204</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D77" s="9">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <f t="shared" si="23"/>
+        <v>30205</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="7">
+        <v>303</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <f t="shared" ref="A80:A97" si="26">C80*100+D80</f>
+        <v>30301</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8">
+        <f>C79</f>
+        <v>303</v>
+      </c>
+      <c r="D80" s="9">
+        <f>D79+1</f>
+        <v>1</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <f t="shared" si="26"/>
+        <v>30302</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8">
+        <f t="shared" ref="C81:C85" si="27">C80</f>
+        <v>303</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" ref="D81:D85" si="28">D80+1</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <f t="shared" si="26"/>
+        <v>30303</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8">
+        <f t="shared" si="27"/>
+        <v>303</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <f t="shared" si="26"/>
+        <v>30304</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8">
+        <f t="shared" si="27"/>
+        <v>303</v>
+      </c>
+      <c r="D83" s="9">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <f t="shared" si="26"/>
+        <v>30305</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8">
+        <f t="shared" si="27"/>
+        <v>303</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <f t="shared" si="26"/>
+        <v>30306</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8">
+        <f t="shared" si="27"/>
+        <v>303</v>
+      </c>
+      <c r="D85" s="9">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="7">
+        <v>401</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <f t="shared" ref="A87:A92" si="29">C87*100+D87</f>
+        <v>40101</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8">
+        <f t="shared" ref="C87:C92" si="30">C86</f>
+        <v>401</v>
+      </c>
+      <c r="D87" s="9">
+        <f t="shared" ref="D87:D92" si="31">D86+1</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <f t="shared" si="29"/>
+        <v>40102</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <f t="shared" si="29"/>
+        <v>40103</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D89" s="9">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+    </row>
+    <row r="90" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <f t="shared" si="29"/>
+        <v>40104</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D90" s="9">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <f t="shared" si="29"/>
+        <v>40105</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <f t="shared" si="29"/>
+        <v>40106</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D92" s="9">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="7">
+        <v>501</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <f t="shared" si="26"/>
+        <v>50101</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8">
+        <f t="shared" ref="C94:C97" si="32">C93</f>
+        <v>501</v>
+      </c>
+      <c r="D94" s="9">
+        <f t="shared" ref="D94:D97" si="33">D93+1</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <f t="shared" si="26"/>
+        <v>50102</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D95" s="9">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <f t="shared" si="26"/>
+        <v>50103</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D96" s="9">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <f t="shared" si="26"/>
+        <v>50104</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8">
+        <f t="shared" si="32"/>
+        <v>501</v>
+      </c>
+      <c r="D97" s="9">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="7">
+        <v>601</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <f t="shared" ref="A107:A110" si="34">C107*100+D107</f>
+        <v>60101</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8">
+        <f t="shared" ref="C107:C110" si="35">C106</f>
+        <v>601</v>
+      </c>
+      <c r="D107" s="9">
+        <f>D106+1</f>
+        <v>1</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <f t="shared" si="34"/>
+        <v>60102</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D108" s="9">
+        <f t="shared" ref="D108:D110" si="36">D107+1</f>
+        <v>2</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <f t="shared" si="34"/>
+        <v>60103</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D109" s="9">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <f t="shared" si="34"/>
+        <v>60104</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2984,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2999,7 +5234,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3007,46 +5242,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3059,7 +5294,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3067,16 +5302,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.25">
@@ -3090,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +5339,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,7 +5353,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,7 +5381,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,7 +5395,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,7 +5423,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,7 +5437,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/0_File/1_Data/001_字串表.xlsx
+++ b/0_File/1_Data/001_字串表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>int</t>
   </si>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色表描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>這是一個特務妹子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +454,50 @@
   </si>
   <si>
     <t>Pasue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋射槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈跳槍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2249,7 +2285,7 @@
         <v>力量</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>20106</v>
       </c>
@@ -2284,7 +2320,7 @@
         <v>輕型武器攻擊倍率</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>20107</v>
       </c>
@@ -2319,7 +2355,7 @@
         <v>中型武器攻擊倍率</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>20108</v>
       </c>
@@ -2566,10 +2602,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2644,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2682,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
@@ -2769,7 +2805,7 @@
         <v>10003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
@@ -2780,19 +2816,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -2802,7 +2838,7 @@
         <v>10004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="1"/>
@@ -2813,19 +2849,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -2835,7 +2871,7 @@
         <v>10005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="1"/>
@@ -2846,19 +2882,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -3177,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7">
         <v>102</v>
@@ -3207,19 +3243,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -3238,19 +3274,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -3269,19 +3305,19 @@
         <v>3</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -3416,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="7">
         <v>103</v>
@@ -3446,19 +3482,19 @@
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J32" s="8"/>
     </row>
@@ -3620,7 +3656,7 @@
     </row>
     <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" ref="A40:A61" si="12">C40*100+D40</f>
+        <f t="shared" ref="A40:A65" si="12">C40*100+D40</f>
         <v>20102</v>
       </c>
       <c r="B40" s="8"/>
@@ -4088,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C55" s="7">
         <v>202</v>
@@ -4110,27 +4146,27 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8">
-        <f t="shared" ref="C56:C61" si="16">C55</f>
+        <f t="shared" ref="C56:C65" si="16">C55</f>
         <v>202</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" ref="D56:D61" si="17">D55+1</f>
+        <f t="shared" ref="D56:D65" si="17">D55+1</f>
         <v>1</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J56" s="8"/>
     </row>
@@ -4244,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C62" s="7">
         <v>203</v>
@@ -4261,45 +4297,37 @@
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
+        <f t="shared" si="12"/>
         <v>20301</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8">
-        <f t="shared" ref="C63:C65" si="18">C62</f>
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" ref="D63:D65" si="19">D62+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
+        <f t="shared" si="12"/>
         <v>20302</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E64" s="8"/>
@@ -4311,15 +4339,16 @@
     </row>
     <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
+        <f t="shared" si="12"/>
         <v>20303</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="E65" s="8"/>
@@ -4334,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C66" s="7">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
@@ -4351,44 +4380,48 @@
     </row>
     <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <f>C67*100+D67</f>
-        <v>30101</v>
+        <v>20301</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8">
-        <f>C66</f>
-        <v>301</v>
+        <f t="shared" ref="C67:C73" si="18">C66</f>
+        <v>205</v>
       </c>
       <c r="D67" s="9">
-        <f>D66+1</f>
+        <f t="shared" ref="D67:D73" si="19">D66+1</f>
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <f t="shared" ref="A68:A72" si="20">C68*100+D68</f>
-        <v>30102</v>
+        <v>20302</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8">
-        <f t="shared" ref="C68:C72" si="21">C67</f>
-        <v>301</v>
+        <f t="shared" si="18"/>
+        <v>205</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" ref="D68:D72" si="22">D67+1</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -4397,67 +4430,58 @@
     </row>
     <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <f t="shared" si="20"/>
-        <v>30103</v>
+        <v>20303</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8">
-        <f t="shared" si="21"/>
-        <v>301</v>
+        <f t="shared" si="18"/>
+        <v>205</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <f t="shared" si="20"/>
-        <v>30104</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8">
-        <f t="shared" si="21"/>
-        <v>301</v>
-      </c>
-      <c r="D70" s="9">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="7">
+        <v>206</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <f t="shared" si="20"/>
-        <v>30105</v>
+        <v>20301</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8">
-        <f t="shared" si="21"/>
-        <v>301</v>
+        <f t="shared" si="18"/>
+        <v>206</v>
       </c>
       <c r="D71" s="9">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>98</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -4466,17 +4490,16 @@
     </row>
     <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <f t="shared" si="20"/>
-        <v>30106</v>
+        <v>20301</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8">
-        <f t="shared" si="21"/>
-        <v>301</v>
+        <f t="shared" si="18"/>
+        <v>206</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4485,62 +4508,63 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>20301</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
+        <f t="shared" si="18"/>
+        <v>206</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="7">
-        <v>302</v>
-      </c>
-      <c r="D73" s="7">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <f t="shared" ref="A74:A78" si="23">C74*100+D74</f>
-        <v>30201</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8">
-        <f t="shared" ref="C74:C78" si="24">C73</f>
-        <v>302</v>
-      </c>
-      <c r="D74" s="9">
-        <f t="shared" ref="D74:D78" si="25">D73+1</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="B74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="7">
+        <v>301</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <f t="shared" si="23"/>
-        <v>30202</v>
+        <f>C75*100+D75</f>
+        <v>30101</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8">
-        <f t="shared" si="24"/>
-        <v>302</v>
+        <f>C74</f>
+        <v>301</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="E75" s="8"/>
+        <f>D74+1</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -4549,19 +4573,21 @@
     </row>
     <row r="76" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <f t="shared" si="23"/>
-        <v>30203</v>
+        <f t="shared" ref="A76:A80" si="20">C76*100+D76</f>
+        <v>30102</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8">
-        <f t="shared" si="24"/>
-        <v>302</v>
+        <f t="shared" ref="C76:C80" si="21">C75</f>
+        <v>301</v>
       </c>
       <c r="D76" s="9">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="E76" s="8"/>
+        <f t="shared" ref="D76:D80" si="22">D75+1</f>
+        <v>2</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -4570,19 +4596,21 @@
     </row>
     <row r="77" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <f t="shared" si="23"/>
-        <v>30204</v>
+        <f t="shared" si="20"/>
+        <v>30103</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8">
-        <f t="shared" si="24"/>
-        <v>302</v>
+        <f t="shared" si="21"/>
+        <v>301</v>
       </c>
       <c r="D77" s="9">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="E77" s="8"/>
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -4591,58 +4619,63 @@
     </row>
     <row r="78" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <f t="shared" si="23"/>
-        <v>30205</v>
+        <f t="shared" si="20"/>
+        <v>30104</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8">
-        <f t="shared" si="24"/>
-        <v>302</v>
+        <f t="shared" si="21"/>
+        <v>301</v>
       </c>
       <c r="D78" s="9">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="E78" s="8"/>
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="7">
-        <v>303</v>
-      </c>
-      <c r="D79" s="7">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+    <row r="79" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <f t="shared" si="20"/>
+        <v>30105</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="D79" s="9">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <f t="shared" ref="A80:A97" si="26">C80*100+D80</f>
-        <v>30301</v>
+        <f t="shared" si="20"/>
+        <v>30106</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8">
-        <f>C79</f>
-        <v>303</v>
+        <f t="shared" si="21"/>
+        <v>301</v>
       </c>
       <c r="D80" s="9">
-        <f>D79+1</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -4651,42 +4684,43 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <f t="shared" si="26"/>
-        <v>30302</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8">
-        <f t="shared" ref="C81:C85" si="27">C80</f>
-        <v>303</v>
-      </c>
-      <c r="D81" s="9">
-        <f t="shared" ref="D81:D85" si="28">D80+1</f>
-        <v>2</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="7">
+        <v>302</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <f t="shared" si="26"/>
-        <v>30303</v>
+        <f t="shared" ref="A82:A90" si="23">C82*100+D82</f>
+        <v>30201</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8">
-        <f t="shared" si="27"/>
-        <v>303</v>
+        <f t="shared" ref="C82:C90" si="24">C81</f>
+        <v>302</v>
       </c>
       <c r="D82" s="9">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="E82" s="8"/>
+        <f t="shared" ref="D82:D90" si="25">D81+1</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -4695,19 +4729,21 @@
     </row>
     <row r="83" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <f t="shared" si="26"/>
-        <v>30304</v>
+        <f t="shared" si="23"/>
+        <v>30202</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8">
-        <f t="shared" si="27"/>
-        <v>303</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D83" s="9">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="E83" s="8"/>
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -4716,19 +4752,21 @@
     </row>
     <row r="84" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <f t="shared" si="26"/>
-        <v>30305</v>
+        <f t="shared" si="23"/>
+        <v>30203</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8">
-        <f t="shared" si="27"/>
-        <v>303</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D84" s="9">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="E84" s="8"/>
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -4737,61 +4775,66 @@
     </row>
     <row r="85" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <f t="shared" si="26"/>
-        <v>30306</v>
+        <f t="shared" si="23"/>
+        <v>30204</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8">
-        <f t="shared" si="27"/>
-        <v>303</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D85" s="9">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="E85" s="8"/>
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="7">
-        <v>401</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+    <row r="86" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <f t="shared" si="23"/>
+        <v>30205</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="D86" s="9">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
     </row>
     <row r="87" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <f t="shared" ref="A87:A92" si="29">C87*100+D87</f>
-        <v>40101</v>
+        <f t="shared" si="23"/>
+        <v>30206</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8">
-        <f t="shared" ref="C87:C92" si="30">C86</f>
-        <v>401</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D87" s="9">
-        <f t="shared" ref="D87:D92" si="31">D86+1</f>
-        <v>1</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>91</v>
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -4801,19 +4844,21 @@
     </row>
     <row r="88" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <f t="shared" si="29"/>
-        <v>40102</v>
+        <f t="shared" si="23"/>
+        <v>30207</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D88" s="9">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="E88" s="8"/>
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -4822,19 +4867,19 @@
     </row>
     <row r="89" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <f t="shared" si="29"/>
-        <v>40103</v>
+        <f t="shared" si="23"/>
+        <v>30208</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D89" s="9">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="E89" s="8"/>
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -4843,17 +4888,17 @@
     </row>
     <row r="90" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <f t="shared" si="29"/>
-        <v>40104</v>
+        <f t="shared" si="23"/>
+        <v>30209</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f t="shared" si="24"/>
+        <v>302</v>
       </c>
       <c r="D90" s="9">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" si="25"/>
+        <v>9</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -4862,40 +4907,39 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <f t="shared" si="29"/>
-        <v>40105</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
-      </c>
-      <c r="D91" s="9">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="7">
+        <v>303</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <f t="shared" si="29"/>
-        <v>40106</v>
+        <f t="shared" ref="A92:A109" si="26">C92*100+D92</f>
+        <v>30301</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8">
-        <f t="shared" si="30"/>
-        <v>401</v>
+        <f>C91</f>
+        <v>303</v>
       </c>
       <c r="D92" s="9">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <f>D91+1</f>
+        <v>1</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -4904,39 +4948,40 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="7">
-        <v>501</v>
-      </c>
-      <c r="D93" s="7">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+    <row r="93" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <f t="shared" si="26"/>
+        <v>30302</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8">
+        <f t="shared" ref="C93:C97" si="27">C92</f>
+        <v>303</v>
+      </c>
+      <c r="D93" s="9">
+        <f t="shared" ref="D93:D97" si="28">D92+1</f>
+        <v>2</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <f t="shared" si="26"/>
-        <v>50101</v>
+        <v>30303</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8">
-        <f t="shared" ref="C94:C97" si="32">C93</f>
-        <v>501</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" ref="D94:D97" si="33">D93+1</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -4948,16 +4993,16 @@
     <row r="95" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="26"/>
-        <v>50102</v>
+        <v>30304</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>4</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -4969,16 +5014,16 @@
     <row r="96" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="26"/>
-        <v>50103</v>
+        <v>30305</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <f t="shared" si="28"/>
+        <v>5</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -4990,16 +5035,16 @@
     <row r="97" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <f t="shared" si="26"/>
-        <v>50104</v>
+        <v>30306</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8">
-        <f t="shared" si="32"/>
-        <v>501</v>
+        <f t="shared" si="27"/>
+        <v>303</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>6</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -5008,24 +5053,43 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="7">
+        <v>401</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="8">
+        <f t="shared" ref="A99:A104" si="29">C99*100+D99</f>
+        <v>40101</v>
+      </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="8"/>
+      <c r="C99" s="8">
+        <f t="shared" ref="C99:C104" si="30">C98</f>
+        <v>401</v>
+      </c>
+      <c r="D99" s="9">
+        <f t="shared" ref="D99:D104" si="31">D98+1</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -5033,10 +5097,19 @@
       <c r="J99" s="8"/>
     </row>
     <row r="100" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="8">
+        <f t="shared" si="29"/>
+        <v>40102</v>
+      </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="9"/>
+      <c r="C100" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D100" s="9">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -5045,10 +5118,19 @@
       <c r="J100" s="8"/>
     </row>
     <row r="101" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="8">
+        <f t="shared" si="29"/>
+        <v>40103</v>
+      </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="9"/>
+      <c r="C101" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D101" s="9">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -5057,10 +5139,19 @@
       <c r="J101" s="8"/>
     </row>
     <row r="102" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="8">
+        <f t="shared" si="29"/>
+        <v>40104</v>
+      </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="9"/>
+      <c r="C102" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D102" s="9">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -5069,10 +5160,19 @@
       <c r="J102" s="8"/>
     </row>
     <row r="103" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="8">
+        <f t="shared" si="29"/>
+        <v>40105</v>
+      </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="9"/>
+      <c r="C103" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -5081,10 +5181,19 @@
       <c r="J103" s="8"/>
     </row>
     <row r="104" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="8">
+        <f t="shared" si="29"/>
+        <v>40106</v>
+      </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="9"/>
+      <c r="C104" s="8">
+        <f t="shared" si="30"/>
+        <v>401</v>
+      </c>
+      <c r="D104" s="9">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -5092,51 +5201,60 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="7">
-        <v>601</v>
-      </c>
-      <c r="D106" s="7">
-        <v>0</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="7">
+        <v>501</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <f t="shared" si="26"/>
+        <v>50101</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8">
+        <f t="shared" ref="C106:C109" si="32">C105</f>
+        <v>501</v>
+      </c>
+      <c r="D106" s="9">
+        <f t="shared" ref="D106:D109" si="33">D105+1</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
-        <f t="shared" ref="A107:A110" si="34">C107*100+D107</f>
-        <v>60101</v>
+        <f t="shared" si="26"/>
+        <v>50102</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8">
-        <f t="shared" ref="C107:C110" si="35">C106</f>
-        <v>601</v>
+        <f t="shared" si="32"/>
+        <v>501</v>
       </c>
       <c r="D107" s="9">
-        <f>D106+1</f>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>2</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -5145,19 +5263,19 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
-        <f t="shared" si="34"/>
-        <v>60102</v>
+        <f t="shared" si="26"/>
+        <v>50103</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
+        <f t="shared" si="32"/>
+        <v>501</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" ref="D108:D110" si="36">D107+1</f>
-        <v>2</v>
+        <f t="shared" si="33"/>
+        <v>3</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -5166,19 +5284,19 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
-        <f t="shared" si="34"/>
-        <v>60103</v>
+        <f t="shared" si="26"/>
+        <v>50104</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
+        <f t="shared" si="32"/>
+        <v>501</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -5187,26 +5305,205 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <f t="shared" si="34"/>
-        <v>60104</v>
-      </c>
+    <row r="110" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="8">
-        <f t="shared" si="35"/>
-        <v>601</v>
-      </c>
-      <c r="D110" s="9">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
+    </row>
+    <row r="111" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="7">
+        <v>601</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <f t="shared" ref="A119:A122" si="34">C119*100+D119</f>
+        <v>60101</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8">
+        <f t="shared" ref="C119:C122" si="35">C118</f>
+        <v>601</v>
+      </c>
+      <c r="D119" s="9">
+        <f>D118+1</f>
+        <v>1</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <f t="shared" si="34"/>
+        <v>60102</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D120" s="9">
+        <f t="shared" ref="D120:D122" si="36">D119+1</f>
+        <v>2</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <f t="shared" si="34"/>
+        <v>60103</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D121" s="9">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <f t="shared" si="34"/>
+        <v>60104</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8">
+        <f t="shared" si="35"/>
+        <v>601</v>
+      </c>
+      <c r="D122" s="9">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
